--- a/medicine/Médecine vétérinaire/Provende/Provende.xlsx
+++ b/medicine/Médecine vétérinaire/Provende/Provende.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La provende est le mélange alimentaire destiné aux animaux d'élevage[1]. Sa fabrication et son commerce, qui s'organisent dans un secteur économique spécifique, sont appelés provenderie. On appelle provendier un acteur travaillant dans ce secteur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La provende est le mélange alimentaire destiné aux animaux d'élevage. Sa fabrication et son commerce, qui s'organisent dans un secteur économique spécifique, sont appelés provenderie. On appelle provendier un acteur travaillant dans ce secteur.
 </t>
         </is>
       </c>
